--- a/Testkit/Q1/Header.xlsx
+++ b/Testkit/Q1/Header.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A97091-0348-46EB-8FB0-DF7427671C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD7646C-AB26-43E4-AE7F-5619A8E95C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Data Type</t>
   </si>
@@ -109,6 +109,36 @@
   </si>
   <si>
     <t>TCP</t>
+  </si>
+  <si>
+    <t>2 lỗi</t>
+  </si>
+  <si>
+    <t>sai format</t>
+  </si>
+  <si>
+    <t>sai phép toán</t>
+  </si>
+  <si>
+    <t>trống</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>chia 0</t>
+  </si>
+  <si>
+    <t>3 lỗi sai</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>phép nhân đúng</t>
+  </si>
+  <si>
+    <t>phép chia đúng + format</t>
   </si>
 </sst>
 </file>
@@ -515,18 +545,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -534,84 +565,114 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11">
         <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
